--- a/docs/Market.xlsx
+++ b/docs/Market.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\github\pos-reports\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="37395" windowHeight="17190"/>
   </bookViews>
@@ -74,7 +79,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,6 +87,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -89,7 +97,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -109,6 +117,45 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.24349877767663336"/>
+                      <c:h val="0.30721966205837176"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
@@ -116,6 +163,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -201,14 +253,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19048</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -231,9 +283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +323,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,7 +572,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="T21" sqref="C12:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
